--- a/21.07.20_MTT_Perkin_data/final_tables/results_combined.xlsx
+++ b/21.07.20_MTT_Perkin_data/final_tables/results_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="347">
   <si>
     <t>Drug</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>82.8313343208736</t>
+  </si>
+  <si>
+    <t>&gt; 100</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,6 +1172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1470,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,9 +1487,15 @@
     <col min="1" max="1" width="8.88671875" style="5"/>
     <col min="2" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="17.21875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="5"/>
+    <col min="11" max="17" width="8.88671875" style="6"/>
+    <col min="18" max="18" width="8.88671875" style="7"/>
+    <col min="19" max="19" width="8.88671875" style="5"/>
+    <col min="20" max="26" width="8.88671875" style="6"/>
+    <col min="27" max="27" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1511,58 +1523,58 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -1593,21 +1605,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AB2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1635,52 +1647,52 @@
       <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="W3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="AB3" t="s">
@@ -1695,7 +1707,7 @@
       <c r="AE3" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AG3" t="s">
@@ -1711,7 +1723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
@@ -1724,7 +1736,7 @@
       <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1739,58 +1751,58 @@
       <c r="I4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="W4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="7" t="s">
         <v>62</v>
       </c>
       <c r="AB4" t="s">
@@ -1805,7 +1817,7 @@
       <c r="AE4" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AG4" t="s">
@@ -1821,7 +1833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1834,7 +1846,7 @@
       <c r="D5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1849,58 +1861,58 @@
       <c r="I5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="10" t="s">
         <v>92</v>
       </c>
       <c r="AB5" t="s">
@@ -1915,23 +1927,24 @@
       <c r="AE5" t="s">
         <v>95</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="AK5" s="11"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>101</v>
       </c>
@@ -1944,7 +1957,7 @@
       <c r="D6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1959,46 +1972,49 @@
       <c r="I6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="W6" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="7" t="s">
         <v>119</v>
       </c>
       <c r="AB6" t="s">
@@ -2013,7 +2029,7 @@
       <c r="AE6" t="s">
         <v>122</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AG6" t="s">
@@ -2029,11 +2045,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2045,64 +2061,64 @@
       <c r="E7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="10" t="s">
         <v>148</v>
       </c>
       <c r="AB7" t="s">
@@ -2117,23 +2133,23 @@
       <c r="AE7" t="s">
         <v>151</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>157</v>
       </c>
@@ -2161,40 +2177,43 @@
       <c r="I8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="N8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="7" t="s">
         <v>173</v>
       </c>
       <c r="AB8" t="s">
@@ -2209,7 +2228,7 @@
       <c r="AE8" t="s">
         <v>176</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AG8" t="s">
@@ -2225,11 +2244,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2241,64 +2260,64 @@
       <c r="E9" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="10" t="s">
         <v>202</v>
       </c>
       <c r="AB9" t="s">
@@ -2313,7 +2332,7 @@
       <c r="AE9" t="s">
         <v>205</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="11" t="s">
         <v>206</v>
       </c>
       <c r="AG9" t="s">
@@ -2329,11 +2348,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2345,70 +2364,70 @@
       <c r="E10" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="7" t="s">
         <v>234</v>
       </c>
       <c r="AB10" t="s">
@@ -2423,7 +2442,7 @@
       <c r="AE10" t="s">
         <v>237</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AG10" t="s">
@@ -2439,7 +2458,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>243</v>
       </c>
@@ -2461,52 +2480,52 @@
       <c r="I11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="N11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="10" t="s">
         <v>261</v>
       </c>
       <c r="AB11" t="s">
@@ -2521,7 +2540,7 @@
       <c r="AE11" t="s">
         <v>264</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AG11" t="s">
@@ -2537,7 +2556,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>269</v>
       </c>
@@ -2559,46 +2578,46 @@
       <c r="I12" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="N12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="W12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="W12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="7" t="s">
         <v>284</v>
       </c>
       <c r="AB12" t="s">
@@ -2607,7 +2626,7 @@
       <c r="AC12" t="s">
         <v>285</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AG12" t="s">
@@ -2623,7 +2642,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>290</v>
       </c>
@@ -2639,58 +2658,61 @@
       <c r="E13" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="W13" t="s">
-        <v>17</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="W13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="7" t="s">
         <v>309</v>
       </c>
       <c r="AB13" t="s">
@@ -2705,23 +2727,24 @@
       <c r="AE13" t="s">
         <v>104</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AF13" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AH13" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AI13" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="11" t="s">
         <v>316</v>
       </c>
+      <c r="AK13" s="11"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>317</v>
       </c>
@@ -2749,58 +2772,58 @@
       <c r="I14" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="N14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="W14" t="s">
-        <v>17</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="W14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="7" t="s">
         <v>338</v>
       </c>
       <c r="AB14" t="s">
@@ -2815,7 +2838,7 @@
       <c r="AE14" t="s">
         <v>341</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AG14" t="s">
